--- a/escolas/rui barbosa/8A.xlsx
+++ b/escolas/rui barbosa/8A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\ACTTEENS\Automatização\escolas\rui barbosa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\actteensprogram-automacao\escolas\rui barbosa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89DAD61-F98E-4D69-ABF7-DF0594803595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D583EEA-6F40-4226-A52E-5F5FF40EBD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,7 +206,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,10 +523,10 @@
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>5514997391223</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>5514997391223</v>
       </c>
     </row>
@@ -535,10 +534,10 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>5543998440710</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>5543996994696</v>
       </c>
     </row>
@@ -546,17 +545,17 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>5543999867494</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>5543996549872</v>
       </c>
     </row>
@@ -564,10 +563,10 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>5543998000937</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>5543996202729</v>
       </c>
     </row>
@@ -575,26 +574,26 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>5543988636929</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>5543988554353</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>5543988566222</v>
       </c>
     </row>
@@ -602,26 +601,26 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>5543984120948</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>5543984525547</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>5543984774037</v>
       </c>
     </row>
@@ -629,10 +628,10 @@
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>5543999791266</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>5543996645822</v>
       </c>
     </row>
@@ -640,10 +639,10 @@
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>5543988303673</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>5543991233873</v>
       </c>
     </row>
@@ -651,10 +650,10 @@
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>5543998628077</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>5543991282535</v>
       </c>
     </row>
@@ -662,10 +661,10 @@
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>5511949987693</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>5511964284086</v>
       </c>
     </row>
@@ -673,10 +672,10 @@
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>5543999334746</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>5543996901599</v>
       </c>
     </row>
@@ -684,10 +683,10 @@
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>5543988623448</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>5543988510992</v>
       </c>
     </row>
@@ -695,26 +694,26 @@
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>5543999736898</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>5543984214732</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>5543984852904</v>
       </c>
     </row>
@@ -722,28 +721,28 @@
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4">
         <v>5543998006151</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>5543991779663</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>5543999904074</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>5543996408967</v>
       </c>
     </row>
@@ -751,8 +750,8 @@
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4">
         <v>5543998300843</v>
       </c>
     </row>
@@ -760,10 +759,10 @@
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>5543998154894</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>5543996552317</v>
       </c>
     </row>
@@ -771,19 +770,19 @@
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>5543996616940</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>5543988312198</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>5543999037295</v>
       </c>
     </row>
@@ -791,10 +790,10 @@
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>5543991725858</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>5543991746514</v>
       </c>
     </row>
@@ -802,10 +801,10 @@
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>5543984168086</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>5543984921856</v>
       </c>
     </row>
@@ -813,10 +812,10 @@
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>5543984855419</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>5543984071742</v>
       </c>
     </row>
@@ -824,10 +823,10 @@
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>5543991752218</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>5543988547039</v>
       </c>
     </row>
@@ -835,10 +834,10 @@
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>5543991347415</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>5543999077298</v>
       </c>
     </row>
@@ -846,10 +845,10 @@
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>554384356465</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>554384356465</v>
       </c>
     </row>
@@ -857,15 +856,15 @@
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>5543996440402</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>5543996440402</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="7"/>
+      <c r="C36" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
